--- a/Computing Lab/Methods Used.xlsx
+++ b/Computing Lab/Methods Used.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\NITK\S1\Computing Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56441C6C-64A2-49B7-AEFF-894A4679D743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2374C8F-8748-45E6-A3A7-1265AF437A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
